--- a/cotacoes_bolsa.xlsx
+++ b/cotacoes_bolsa.xlsx
@@ -473,17 +473,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>11.77999973297119</v>
+        <v>12.30646991729736</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>636.1199855804443</v>
+        <v>12.30646991729736</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:50</t>
+          <t>01/12/2025 09:04:44</t>
         </is>
       </c>
     </row>
@@ -494,17 +494,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>22</v>
+        <v>22.46999931335449</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>660</v>
+        <v>22.46999931335449</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:44</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>13.61999988555908</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>558.4199953079224</v>
+        <v>13.85999965667725</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:44</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>34.47999954223633</v>
+        <v>35.43000030517578</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>620.6399917602539</v>
+        <v>35.43000030517578</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -557,17 +557,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>65.16000366210938</v>
+        <v>67.40000152587891</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>586.4400329589844</v>
+        <v>67.40000152587891</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -578,17 +578,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>18.29000091552734</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>640.150032043457</v>
+        <v>19.43000030517578</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -599,17 +599,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>11.01000022888184</v>
+        <v>11.5</v>
       </c>
       <c r="C8" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>583.5300121307373</v>
+        <v>11.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>42.63999938964844</v>
+        <v>30.63999938964844</v>
       </c>
       <c r="C9" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>596.9599914550781</v>
+        <v>30.63999938964844</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:51</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>37.88999938964844</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>947.2499847412109</v>
+        <v>41.63000106811523</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:52</t>
+          <t>01/12/2025 09:04:45</t>
         </is>
       </c>
     </row>
@@ -662,17 +662,17 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>6.75</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="C11" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>540</v>
+        <v>7.360000133514404</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24/11/2025 08:37:52</t>
+          <t>01/12/2025 09:04:46</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ação</t>
+          <t>Ação:</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -729,17 +729,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.399300098419189</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:21</t>
+          <t>01/12/2025 09:04:50</t>
         </is>
       </c>
     </row>
@@ -750,17 +750,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5.399300098419189</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:21</t>
+          <t>01/12/2025 09:04:50</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.399300098419189</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:21</t>
+          <t>01/12/2025 09:04:50</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5.399300098419189</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>5.334199905395508</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:21</t>
+          <t>01/12/2025 09:04:50</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>150</v>
+        <v>151.0399932861328</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>900</v>
+        <v>151.0399932861328</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:40</t>
+          <t>01/12/2025 09:04:58</t>
         </is>
       </c>
     </row>
@@ -880,17 +880,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>86.98999786376953</v>
+        <v>87.25</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>695.9199829101562</v>
+        <v>87.25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:40</t>
+          <t>01/12/2025 09:04:58</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.909999847412109</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>693.6999893188477</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:40</t>
+          <t>01/12/2025 09:04:58</t>
         </is>
       </c>
     </row>
@@ -922,17 +922,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>82.13999938964844</v>
+        <v>83.04000091552734</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>657.1199951171875</v>
+        <v>83.04000091552734</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:40</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -943,17 +943,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>109.5999984741211</v>
+        <v>109.5800018310547</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>767.1999893188477</v>
+        <v>109.5800018310547</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:40</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -964,17 +964,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>78.08999633789062</v>
+        <v>79.23000335693359</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>624.719970703125</v>
+        <v>79.23000335693359</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -985,17 +985,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>79.33999633789062</v>
+        <v>79.87000274658203</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>634.719970703125</v>
+        <v>79.87000274658203</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -1006,17 +1006,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>88</v>
+        <v>88.27999877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>704</v>
+        <v>88.27999877929688</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -1030,14 +1030,14 @@
         <v>64.48999786376953</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>709.3899765014648</v>
+        <v>64.48999786376953</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:04:59</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1051,14 @@
         <v>8.380000114440918</v>
       </c>
       <c r="C11" t="n">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>586.6000080108643</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:05:00</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1069,17 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>500</v>
+        <v>5.25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:41</t>
+          <t>01/12/2025 09:05:00</t>
         </is>
       </c>
     </row>
@@ -1090,17 +1090,17 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>9.569999694824219</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>650.7599792480469</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24/11/2025 08:38:42</t>
+          <t>01/12/2025 09:05:00</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,15 +1126,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Categoria</t>
+          <t>Ação</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Investido (R$)</t>
+          <t>Valor em USD</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Cotação Dolar</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Valor em Reais</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Atualizado em</t>
         </is>
@@ -1146,12 +1156,12 @@
           <t>Renda Fixa</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24/11/2025 08:38:57</t>
+      <c r="D2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01/12/2025 09:05:04</t>
         </is>
       </c>
     </row>

--- a/cotacoes_bolsa.xlsx
+++ b/cotacoes_bolsa.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Ações Internacionais" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FIIs" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Renda Fixa" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Porcentagens" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,17 +474,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.30646991729736</v>
+        <v>12.23999977111816</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>12.30646991729736</v>
+        <v>122.3999977111816</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:44</t>
+          <t>02/12/2025 08:52:18</t>
         </is>
       </c>
     </row>
@@ -494,17 +495,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>22.46999931335449</v>
+        <v>22.18807220458984</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>22.46999931335449</v>
+        <v>221.8807220458984</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:44</t>
+          <t>02/12/2025 08:52:19</t>
         </is>
       </c>
     </row>
@@ -515,17 +516,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>13.85999965667725</v>
+        <v>14.01000022888184</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>13.85999965667725</v>
+        <v>700.5000114440918</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:44</t>
+          <t>02/12/2025 08:52:19</t>
         </is>
       </c>
     </row>
@@ -536,17 +537,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>35.43000030517578</v>
+        <v>34.81999969482422</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>35.43000030517578</v>
+        <v>1044.599990844727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:19</t>
         </is>
       </c>
     </row>
@@ -557,17 +558,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>67.40000152587891</v>
+        <v>67.91999816894531</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>67.40000152587891</v>
+        <v>2716.799926757812</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:19</t>
         </is>
       </c>
     </row>
@@ -578,17 +579,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>19.43000030517578</v>
+        <v>19.6299991607666</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>19.43000030517578</v>
+        <v>981.4999580383301</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:19</t>
         </is>
       </c>
     </row>
@@ -599,17 +600,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>11.5</v>
+        <v>11.26000022888184</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>11.5</v>
+        <v>1013.400020599365</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:20</t>
         </is>
       </c>
     </row>
@@ -620,17 +621,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30.63999938964844</v>
+        <v>30.36000061035156</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>30.63999938964844</v>
+        <v>2125.200042724609</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:20</t>
         </is>
       </c>
     </row>
@@ -641,17 +642,17 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>41.63000106811523</v>
+        <v>42.77000045776367</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>41.63000106811523</v>
+        <v>855.4000091552734</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:45</t>
+          <t>02/12/2025 08:52:20</t>
         </is>
       </c>
     </row>
@@ -662,17 +663,17 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>7.360000133514404</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>7.360000133514404</v>
+        <v>216.5999937057495</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:46</t>
+          <t>02/12/2025 08:52:20</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>5.334199905395508</v>
+        <v>5.357100009918213</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>5.334199905395508</v>
+        <v>214.2840003967285</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:50</t>
+          <t>02/12/2025 08:52:28</t>
         </is>
       </c>
     </row>
@@ -750,17 +751,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>5.334199905395508</v>
+        <v>5.357100009918213</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>5.334199905395508</v>
+        <v>53.57100009918213</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:50</t>
+          <t>02/12/2025 08:52:28</t>
         </is>
       </c>
     </row>
@@ -771,17 +772,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>5.334199905395508</v>
+        <v>5.357100009918213</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>5.334199905395508</v>
+        <v>267.8550004959106</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:50</t>
+          <t>02/12/2025 08:52:28</t>
         </is>
       </c>
     </row>
@@ -792,17 +793,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>5.334199905395508</v>
+        <v>5.357100009918213</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>5.334199905395508</v>
+        <v>482.1390008926392</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:50</t>
+          <t>02/12/2025 08:52:28</t>
         </is>
       </c>
     </row>
@@ -859,17 +860,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>151.0399932861328</v>
+        <v>152.9199981689453</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>151.0399932861328</v>
+        <v>1529.199981689453</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:58</t>
+          <t>02/12/2025 08:52:41</t>
         </is>
       </c>
     </row>
@@ -880,17 +881,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>87.25</v>
+        <v>86.25</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>87.25</v>
+        <v>1725</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:58</t>
+          <t>02/12/2025 08:52:41</t>
         </is>
       </c>
     </row>
@@ -901,17 +902,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.920000076293945</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9.920000076293945</v>
+        <v>299.1000080108643</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:58</t>
+          <t>02/12/2025 08:52:41</t>
         </is>
       </c>
     </row>
@@ -922,17 +923,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>83.04000091552734</v>
+        <v>82.25</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>83.04000091552734</v>
+        <v>3290</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:42</t>
         </is>
       </c>
     </row>
@@ -943,17 +944,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>109.5800018310547</v>
+        <v>109.0999984741211</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>109.5800018310547</v>
+        <v>5454.999923706055</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:42</t>
         </is>
       </c>
     </row>
@@ -964,17 +965,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>79.23000335693359</v>
+        <v>79.75</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>79.23000335693359</v>
+        <v>4785</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:42</t>
         </is>
       </c>
     </row>
@@ -985,17 +986,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>79.87000274658203</v>
+        <v>81.05000305175781</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>79.87000274658203</v>
+        <v>5673.500213623047</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:43</t>
         </is>
       </c>
     </row>
@@ -1006,17 +1007,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>88.27999877929688</v>
+        <v>89.02999877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>88.27999877929688</v>
+        <v>7122.39990234375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:43</t>
         </is>
       </c>
     </row>
@@ -1030,14 +1031,14 @@
         <v>64.48999786376953</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>64.48999786376953</v>
+        <v>5804.099807739258</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01/12/2025 09:04:59</t>
+          <t>02/12/2025 08:52:43</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1049,17 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>8.380000114440918</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>8.380000114440918</v>
+        <v>839.9999618530273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01/12/2025 09:05:00</t>
+          <t>02/12/2025 08:52:43</t>
         </is>
       </c>
     </row>
@@ -1069,17 +1070,17 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5.25</v>
+        <v>5.170000076293945</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5.25</v>
+        <v>522.1700077056885</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>01/12/2025 09:05:00</t>
+          <t>02/12/2025 08:52:43</t>
         </is>
       </c>
     </row>
@@ -1090,17 +1091,17 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>9.630000114440918</v>
+        <v>9.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>9.630000114440918</v>
+        <v>969</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01/12/2025 09:05:00</t>
+          <t>02/12/2025 08:52:44</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cotação Dolar</t>
+          <t>Cotação Dólar</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -1157,12 +1158,67 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>100</v>
+        <v>7000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/12/2025 09:05:04</t>
-        </is>
+          <t>02/12/2025 08:52:48</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nacionais</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Internacionais</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fiis</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Renda Fixa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>17.84432214813888</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.816594880836549</v>
+      </c>
+      <c r="C2" t="n">
+        <v>67.84590948231165</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.49317348871292</v>
       </c>
     </row>
   </sheetData>

--- a/cotacoes_bolsa.xlsx
+++ b/cotacoes_bolsa.xlsx
@@ -12,6 +12,7 @@
     <sheet name="FIIs" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Renda Fixa" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Porcentagens" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Rebalanceamento" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,17 +475,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.23999977111816</v>
+        <v>12.35999965667725</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>122.3999977111816</v>
+        <v>123.5999965667725</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:18</t>
+          <t>08/12/2025 08:20:08</t>
         </is>
       </c>
     </row>
@@ -495,17 +496,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>22.18807220458984</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>221.8807220458984</v>
+        <v>211.5999984741211</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:19</t>
+          <t>08/12/2025 08:20:08</t>
         </is>
       </c>
     </row>
@@ -516,17 +517,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>14.01000022888184</v>
+        <v>13.60999965667725</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>700.5000114440918</v>
+        <v>136.0999965667725</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:19</t>
+          <t>08/12/2025 08:20:08</t>
         </is>
       </c>
     </row>
@@ -537,17 +538,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>34.81999969482422</v>
+        <v>33.38000106811523</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1044.599990844727</v>
+        <v>333.8000106811523</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:19</t>
+          <t>08/12/2025 08:20:09</t>
         </is>
       </c>
     </row>
@@ -558,17 +559,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>67.91999816894531</v>
+        <v>70.22000122070312</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2716.799926757812</v>
+        <v>702.2000122070312</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:19</t>
+          <t>08/12/2025 08:20:09</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>19.6299991607666</v>
+        <v>20.1299991607666</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>981.4999580383301</v>
+        <v>201.299991607666</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:19</t>
+          <t>08/12/2025 08:20:09</t>
         </is>
       </c>
     </row>
@@ -600,17 +601,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>11.26000022888184</v>
+        <v>11.07999992370605</v>
       </c>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1013.400020599365</v>
+        <v>110.7999992370605</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:20</t>
+          <t>08/12/2025 08:20:09</t>
         </is>
       </c>
     </row>
@@ -621,17 +622,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>30.36000061035156</v>
+        <v>29.63999938964844</v>
       </c>
       <c r="C9" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2125.200042724609</v>
+        <v>296.3999938964844</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:20</t>
+          <t>08/12/2025 08:20:10</t>
         </is>
       </c>
     </row>
@@ -642,17 +643,17 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>42.77000045776367</v>
+        <v>41.75</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>855.4000091552734</v>
+        <v>417.5</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:20</t>
+          <t>08/12/2025 08:20:10</t>
         </is>
       </c>
     </row>
@@ -663,17 +664,17 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>7.21999979019165</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>216.5999937057495</v>
+        <v>74.80000019073486</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:20</t>
+          <t>08/12/2025 08:20:10</t>
         </is>
       </c>
     </row>
@@ -730,17 +731,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>5.357100009918213</v>
+        <v>5.463300228118896</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>214.2840003967285</v>
+        <v>546.3300228118896</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:28</t>
+          <t>08/12/2025 08:20:16</t>
         </is>
       </c>
     </row>
@@ -751,17 +752,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>5.357100009918213</v>
+        <v>5.463300228118896</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>53.57100009918213</v>
+        <v>546.3300228118896</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:28</t>
+          <t>08/12/2025 08:20:16</t>
         </is>
       </c>
     </row>
@@ -772,17 +773,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>5.357100009918213</v>
+        <v>5.463300228118896</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>267.8550004959106</v>
+        <v>546.3300228118896</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:28</t>
+          <t>08/12/2025 08:20:16</t>
         </is>
       </c>
     </row>
@@ -793,17 +794,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>5.357100009918213</v>
+        <v>5.463300228118896</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>482.1390008926392</v>
+        <v>546.3300228118896</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:28</t>
+          <t>08/12/2025 08:20:16</t>
         </is>
       </c>
     </row>
@@ -860,17 +861,17 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>152.9199981689453</v>
+        <v>150.0200042724609</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1529.199981689453</v>
+        <v>750.1000213623047</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:41</t>
+          <t>08/12/2025 08:20:23</t>
         </is>
       </c>
     </row>
@@ -881,17 +882,17 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>86.25</v>
+        <v>86.13999938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1725</v>
+        <v>430.6999969482422</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:41</t>
+          <t>08/12/2025 08:20:23</t>
         </is>
       </c>
     </row>
@@ -902,17 +903,17 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9.970000267028809</v>
+        <v>9.840000152587891</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>299.1000080108643</v>
+        <v>49.20000076293945</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:41</t>
+          <t>08/12/2025 08:20:23</t>
         </is>
       </c>
     </row>
@@ -923,17 +924,17 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>82.25</v>
+        <v>83.98999786376953</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3290</v>
+        <v>419.9499893188477</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:42</t>
+          <t>08/12/2025 08:20:24</t>
         </is>
       </c>
     </row>
@@ -944,17 +945,17 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>109.0999984741211</v>
+        <v>110.3499984741211</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5454.999923706055</v>
+        <v>551.7499923706055</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:42</t>
+          <t>08/12/2025 08:20:24</t>
         </is>
       </c>
     </row>
@@ -965,17 +966,17 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>79.75</v>
+        <v>80.47000122070312</v>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4785</v>
+        <v>402.3500061035156</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:42</t>
+          <t>08/12/2025 08:20:24</t>
         </is>
       </c>
     </row>
@@ -986,17 +987,17 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>81.05000305175781</v>
+        <v>80.05000305175781</v>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>5673.500213623047</v>
+        <v>400.2500152587891</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:43</t>
+          <t>08/12/2025 08:20:24</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1008,17 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>89.02999877929688</v>
+        <v>88.45999908447266</v>
       </c>
       <c r="C9" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>7122.39990234375</v>
+        <v>442.2999954223633</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:43</t>
+          <t>08/12/2025 08:20:25</t>
         </is>
       </c>
     </row>
@@ -1031,14 +1032,14 @@
         <v>64.48999786376953</v>
       </c>
       <c r="C10" t="n">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>5804.099807739258</v>
+        <v>322.4499893188477</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:43</t>
+          <t>08/12/2025 08:20:25</t>
         </is>
       </c>
     </row>
@@ -1049,17 +1050,17 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>8.399999618530273</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>839.9999618530273</v>
+        <v>42.30000019073486</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:43</t>
+          <t>08/12/2025 08:20:25</t>
         </is>
       </c>
     </row>
@@ -1070,17 +1071,17 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5.170000076293945</v>
+        <v>5.190000057220459</v>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>522.1700077056885</v>
+        <v>25.95000028610229</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:43</t>
+          <t>08/12/2025 08:20:26</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1092,17 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>9.5</v>
+        <v>9.489999771118164</v>
       </c>
       <c r="C13" t="n">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>969</v>
+        <v>47.44999885559082</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:44</t>
+          <t>08/12/2025 08:20:26</t>
         </is>
       </c>
     </row>
@@ -1158,11 +1159,11 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>02/12/2025 08:52:48</t>
+          <t>08/12/2025 08:20:30</t>
         </is>
       </c>
     </row>
@@ -1209,16 +1210,138 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17.84432214813888</v>
+        <v>24.42459687162363</v>
       </c>
       <c r="B2" t="n">
-        <v>1.816594880836549</v>
+        <v>20.46530511709357</v>
       </c>
       <c r="C2" t="n">
-        <v>67.84590948231165</v>
+        <v>36.38029710105521</v>
       </c>
       <c r="D2" t="n">
-        <v>12.49317348871292</v>
+        <v>18.72980091022758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Ideal (R$)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Valor Atual (R$)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Diferença Necessaria (R$)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Aporte distribuido (R$)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Ações Nacionais</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>2919.542524218559</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2608.099999427795</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>311.4425247907639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>390.5771834659742</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ações Internacionais</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2335.634019374847</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2185.320091247559</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>150.3139281272888</v>
+      </c>
+      <c r="E3" t="n">
+        <v>188.507303949921</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FIIs</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2919.542524218559</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3884.750006198883</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Renda Fixa</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2335.634019374847</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>335.6340193748474</v>
+      </c>
+      <c r="E5" t="n">
+        <v>420.9155125841048</v>
       </c>
     </row>
   </sheetData>
